--- a/Tablas Control.xlsx
+++ b/Tablas Control.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potencia719-my.sharepoint.com/personal/info_potencia_com_co/Documents/EQUIPO POTENCIA/Automatización diagnóstico/CUIPO Resumidos Luis/app_streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://potencia719-my.sharepoint.com/personal/info_potencia_com_co/Documents/EQUIPO POTENCIA/Automatización diagnóstico/CUIPO Resumidos Luis/app_streamlit/App_Cuipo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{5BE83D8C-76A2-4E1A-A786-37BE329AF624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384DED4D-2EBD-482F-8A28-FF74FE318F13}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{5BE83D8C-76A2-4E1A-A786-37BE329AF624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C81B719-2137-4D51-8D56-73C182BFC35D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{59F3CEBB-51DB-41EB-A3CF-D153D407F55C}"/>
+    <workbookView xWindow="28680" yWindow="-780" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{59F3CEBB-51DB-41EB-A3CF-D153D407F55C}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodos" sheetId="3" r:id="rId1"/>
     <sheet name="Tablamun" sheetId="1" r:id="rId2"/>
     <sheet name="Tabladep" sheetId="4" r:id="rId3"/>
+    <sheet name="Tablacontrolingresos" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="dpto">[1]PanelControl!$D$2</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4572" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="1563">
   <si>
     <t>codigo_entidad</t>
   </si>
@@ -3666,13 +3667,1084 @@
   </si>
   <si>
     <t>Pacífico</t>
+  </si>
+  <si>
+    <t>Código Completo</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Nombre de la Cuenta</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Ingresos Corrientes</t>
+  </si>
+  <si>
+    <t>1.1.01</t>
+  </si>
+  <si>
+    <t>Ingresos tributarios</t>
+  </si>
+  <si>
+    <t>1.1.01.01</t>
+  </si>
+  <si>
+    <t>Impuestos directos</t>
+  </si>
+  <si>
+    <t>1.1.01.01.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobretasa ambiental </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1.1.01.01.100</t>
+  </si>
+  <si>
+    <t>Impuesto sobre vehículos automotores</t>
+  </si>
+  <si>
+    <t>1.1.01.01.101</t>
+  </si>
+  <si>
+    <t>Impuesto a ganadores de sorteos ordinarios y extraordinarios</t>
+  </si>
+  <si>
+    <t>1.1.01.01.200</t>
+  </si>
+  <si>
+    <t>Impuesto Predial Unificado</t>
+  </si>
+  <si>
+    <t>1.1.01.01.201</t>
+  </si>
+  <si>
+    <t>Sobretasa Ambiental Áreas Metropolitanas</t>
+  </si>
+  <si>
+    <t>1.1.01.01.202</t>
+  </si>
+  <si>
+    <t>Sobretasa especial para el distrito de Cartagena</t>
+  </si>
+  <si>
+    <t>1.1.01.01.203</t>
+  </si>
+  <si>
+    <t>Sobretasa por el alumbrado público</t>
+  </si>
+  <si>
+    <t>1.1.01.02</t>
+  </si>
+  <si>
+    <t>Impuestos indirectos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.100</t>
+  </si>
+  <si>
+    <t>Impuesto de Registro</t>
+  </si>
+  <si>
+    <t>1.1.01.02.104</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de licores, vinos, aperitivos y similares</t>
+  </si>
+  <si>
+    <t>1.1.01.02.104.01</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de licores</t>
+  </si>
+  <si>
+    <t>1.1.01.02.104.01.01</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de licores - Componente Específico</t>
+  </si>
+  <si>
+    <t>1.1.01.02.104.01.02</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de licores - Componente Ad Valorem</t>
+  </si>
+  <si>
+    <t>1.1.01.02.104.02</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de vinos, aperitivos y similares</t>
+  </si>
+  <si>
+    <t>1.1.01.02.104.02.01</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de vinos, aperitivos y similares - Componente Específico</t>
+  </si>
+  <si>
+    <t>1.1.01.02.104.02.02</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de vinos, aperitivos y similares - Componente Ad Valorem</t>
+  </si>
+  <si>
+    <t>1.1.01.02.105</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de cervezas, sifones, refajos y mezclas</t>
+  </si>
+  <si>
+    <t>1.1.01.02.106</t>
+  </si>
+  <si>
+    <t>Impuesto al consumo de cigarrillos y tabaco</t>
+  </si>
+  <si>
+    <t>1.1.01.02.107</t>
+  </si>
+  <si>
+    <t>Impuesto único al consumo a favor del departamento Archipiélago de San Andrés, Providencia y Santa Catalina</t>
+  </si>
+  <si>
+    <t>1.1.01.02.108</t>
+  </si>
+  <si>
+    <t>Sobretasa fondo departamental de bomberos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobretasa a la gasolina </t>
+  </si>
+  <si>
+    <t>1.1.01.02.200</t>
+  </si>
+  <si>
+    <t>Impuesto de industria y comercio</t>
+  </si>
+  <si>
+    <t>1.1.01.02.201</t>
+  </si>
+  <si>
+    <t>Impuesto complementario de avisos y tableros</t>
+  </si>
+  <si>
+    <t>1.1.01.02.202</t>
+  </si>
+  <si>
+    <t>Impuesto a la publicidad exterior visual</t>
+  </si>
+  <si>
+    <t>1.1.01.02.203</t>
+  </si>
+  <si>
+    <t>Impuesto de circulación y tránsito sobre vehículos de servicio público</t>
+  </si>
+  <si>
+    <t>1.1.01.02.204</t>
+  </si>
+  <si>
+    <t>Impuesto de delineación</t>
+  </si>
+  <si>
+    <t>1.1.01.02.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impuesto de espectáculos públicos nacional con destino al deporte </t>
+  </si>
+  <si>
+    <t>1.1.01.02.206</t>
+  </si>
+  <si>
+    <t>Impuesto a las ventas por el sistema de clubes</t>
+  </si>
+  <si>
+    <t>1.1.01.02.207</t>
+  </si>
+  <si>
+    <t>Impuesto de casinos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.208</t>
+  </si>
+  <si>
+    <t>Impuesto sobre apuestas mutuas</t>
+  </si>
+  <si>
+    <t>1.1.01.02.209</t>
+  </si>
+  <si>
+    <t>Impuesto al degüello de ganado menor</t>
+  </si>
+  <si>
+    <t>1.1.01.02.210</t>
+  </si>
+  <si>
+    <t>Impuesto sobre teléfonos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.211</t>
+  </si>
+  <si>
+    <t>Impuesto de alumbrado público</t>
+  </si>
+  <si>
+    <t>1.1.01.02.212</t>
+  </si>
+  <si>
+    <t>Sobretasa bomberil</t>
+  </si>
+  <si>
+    <t>1.1.01.02.213</t>
+  </si>
+  <si>
+    <t>Sobretasa fondo de Seguridad</t>
+  </si>
+  <si>
+    <t>1.1.01.02.214</t>
+  </si>
+  <si>
+    <t>Impuesto de transporte por oleoductos y gasoductos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.215</t>
+  </si>
+  <si>
+    <t>Impuesto unificado de fondo de pobres, azar y espectáculos públicos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.216</t>
+  </si>
+  <si>
+    <t>Impuesto de espectáculos públicos municipal</t>
+  </si>
+  <si>
+    <t>1.1.01.02.217</t>
+  </si>
+  <si>
+    <t>Sobretasa de solidaridad servicios públicos acueducto, aseo y alcantarillado</t>
+  </si>
+  <si>
+    <t>1.1.01.02.218</t>
+  </si>
+  <si>
+    <t>Tasa prodeporte y recreación</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300</t>
+  </si>
+  <si>
+    <t>Estampillas</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.01</t>
+  </si>
+  <si>
+    <t>Estampilla para el bienestar del adulto mayor</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.02</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo departamental</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.03</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo fronterizo</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.04</t>
+  </si>
+  <si>
+    <t>Estampilla fondo departamental de bomberos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.05</t>
+  </si>
+  <si>
+    <t>Estampilla pro electrificación rural</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.06</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo de la Universidad de la Amazonia</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.07</t>
+  </si>
+  <si>
+    <t>Estampilla la Universidad de Antioquia</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.08</t>
+  </si>
+  <si>
+    <t>Estampilla pro ciudadela universitaria del Atlántico</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.09</t>
+  </si>
+  <si>
+    <t>Estampilla Universidad de Caldas y Universidad Nacional sede Manizales</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.10</t>
+  </si>
+  <si>
+    <t>Estampilla Universidad de Cartagena</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.11</t>
+  </si>
+  <si>
+    <t>Estampilla pro creación de la Seccional Universidad de Cartagena en El Carmen de Bolívar</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.12</t>
+  </si>
+  <si>
+    <t>Estampilla Universidad del Cauca</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.13</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad Popular del Cesar</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.14</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad Tecnológica del Chocó</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.15</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo de la Universidad de Córdoba</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.16</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo Universidad de Cundinamarca</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.17</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad de la Guajira</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.18</t>
+  </si>
+  <si>
+    <t>Estampilla Universidad de los Llanos</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.19</t>
+  </si>
+  <si>
+    <t>Estampilla refundación Universidad del Magdalena</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.20</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo de la Universidad de Nariño</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.21</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo de la Universidad Pública del Norte de Santander</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.22</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad del Pacífico</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.23</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo del Instituto Técnico del Putumayo</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.24</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad del Quindío</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.25</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad Industrial de Santander</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.26</t>
+  </si>
+  <si>
+    <t>Estampilla de la Universidad de Sucre</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.27</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo de la Universidad Surcolombiana del Huila</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.28</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad del Tolima</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.29</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo del Instituto Tolimense de Formación Técnica Profesional</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.30</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad del Valle</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.31</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad Tecnológica de Pereira</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.32</t>
+  </si>
+  <si>
+    <t>Estampilla pro Universidad Pedagógica y Tecnológica de Colombia</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.33</t>
+  </si>
+  <si>
+    <t>Estampilla Universidad Distrital Francisco José de Caldas</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.34</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo del Instituto Tecnológico de Soledad, Atlántico</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.35</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo Unidad Central del Valle del Cauca</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.36</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo de la Institución Universitaria de Envigado</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.37</t>
+  </si>
+  <si>
+    <t>Estampilla Politécnico Colombiano Jaime Isaza Cadavid</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.38</t>
+  </si>
+  <si>
+    <t>Estampilla pro hospitales primer y segundo nivel del Atlántico</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.39</t>
+  </si>
+  <si>
+    <t>Estampilla pro hospitales San Juan de Dios y Gilberto Mejía  de Rionegro Antioquia</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.40</t>
+  </si>
+  <si>
+    <t>Estampilla pro hospitales públicos de Antioquia</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.41</t>
+  </si>
+  <si>
+    <t>Estampilla pro hospitales del Guaviare</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.42</t>
+  </si>
+  <si>
+    <t>Estampilla pro salud departamental del Valle del Cauca</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.43</t>
+  </si>
+  <si>
+    <t>Estampilla pro Hospital de Caldas</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.44</t>
+  </si>
+  <si>
+    <t>Estampillas pro hospitales universitarios</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.45</t>
+  </si>
+  <si>
+    <t>Estampilla pro Hospital Departamental Universitario del Quindío San Juan de Dios</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.46</t>
+  </si>
+  <si>
+    <t>Estampilla pro salud Guainía</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.47</t>
+  </si>
+  <si>
+    <t>Estampilla pro salud Vaupés</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.48</t>
+  </si>
+  <si>
+    <t>Estampilla Armero 10 años</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.49</t>
+  </si>
+  <si>
+    <t>Estampilla de fomento turístico del Meta</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.50</t>
+  </si>
+  <si>
+    <t>Estampilla Sogamoso 2000</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.51</t>
+  </si>
+  <si>
+    <t>Estampilla pro centro de formación artística y cultural Rodrigo Arenas Betancourt</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.52</t>
+  </si>
+  <si>
+    <t>Estampilla Tolima 150 años de contribución a la grandeza de Colombia</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.53</t>
+  </si>
+  <si>
+    <t>Estampilla pro empleo Antioquia</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.54</t>
+  </si>
+  <si>
+    <t>Estampilla pro palacio de la Gobernación y Centro Administrativo Municipal de Popayán</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.55</t>
+  </si>
+  <si>
+    <t>Estampilla pro cultura</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.56</t>
+  </si>
+  <si>
+    <t>Estampilla pro desarrollo urbano de Santiago de Cali</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.57</t>
+  </si>
+  <si>
+    <t>Estampilla homenaje a Carlos E. Restrepo</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.58</t>
+  </si>
+  <si>
+    <t>Estampilla Pro hospitales públicos del Distrito de Buenaventura</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.59</t>
+  </si>
+  <si>
+    <t>Estampilla Cincuenta años de labor de la Universidad Pedagógica Nacional</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.60</t>
+  </si>
+  <si>
+    <t>Estampilla Pro Unitrópico</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.61</t>
+  </si>
+  <si>
+    <t>Estampilla para la justicia familiar</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.62</t>
+  </si>
+  <si>
+    <t>Estampilla Pro Institución Universitaria Digital de Antioquia IU-Digital</t>
+  </si>
+  <si>
+    <t>1.1.01.02.300.63</t>
+  </si>
+  <si>
+    <t>Estampilla pro-hospitales públicos, centros de salud públicos y puestos de salud públicos del Meta</t>
+  </si>
+  <si>
+    <t>1.1.02</t>
+  </si>
+  <si>
+    <t>Ingresos no tributarios</t>
+  </si>
+  <si>
+    <t>1.1.02.01</t>
+  </si>
+  <si>
+    <t>Contribuciones</t>
+  </si>
+  <si>
+    <t>1.1.02.01.003</t>
+  </si>
+  <si>
+    <t>Contribuciones especiales</t>
+  </si>
+  <si>
+    <t>1.1.02.01.005</t>
+  </si>
+  <si>
+    <t>Contribuciones diversas</t>
+  </si>
+  <si>
+    <t>1.1.02.02</t>
+  </si>
+  <si>
+    <t>Tasas y derechos administrativos</t>
+  </si>
+  <si>
+    <t>1.1.02.03</t>
+  </si>
+  <si>
+    <t>Multas, sanciones e intereses de mora</t>
+  </si>
+  <si>
+    <t>1.1.02.05</t>
+  </si>
+  <si>
+    <t>Venta de bienes y servicios</t>
+  </si>
+  <si>
+    <t>1.1.02.05.001</t>
+  </si>
+  <si>
+    <t>Ventas de establecimientos de mercado</t>
+  </si>
+  <si>
+    <t>1.1.02.05.002</t>
+  </si>
+  <si>
+    <t>Ventas incidentales de establecimientos no de mercado</t>
+  </si>
+  <si>
+    <t>1.1.02.06</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes</t>
+  </si>
+  <si>
+    <t>1.1.02.06.001</t>
+  </si>
+  <si>
+    <t>Sistema General de Participaciones</t>
+  </si>
+  <si>
+    <t>1.1.02.06.001.01</t>
+  </si>
+  <si>
+    <t>Participación para educación</t>
+  </si>
+  <si>
+    <t>1.1.02.06.001.02</t>
+  </si>
+  <si>
+    <t>Participación para salud</t>
+  </si>
+  <si>
+    <t>1.1.02.06.001.03</t>
+  </si>
+  <si>
+    <t>Participación para propósito general</t>
+  </si>
+  <si>
+    <t>1.1.02.06.001.04</t>
+  </si>
+  <si>
+    <t>Asignaciones especiales</t>
+  </si>
+  <si>
+    <t>1.1.02.06.001.05</t>
+  </si>
+  <si>
+    <t>Agua potable y saneamiento básico</t>
+  </si>
+  <si>
+    <t>1.1.02.06.001.06</t>
+  </si>
+  <si>
+    <t>Atención integral de la primera infancia</t>
+  </si>
+  <si>
+    <t>1.1.02.06.003</t>
+  </si>
+  <si>
+    <t>Participaciones distintas del SGP</t>
+  </si>
+  <si>
+    <t>1.1.02.06.003.01</t>
+  </si>
+  <si>
+    <t>Participación en impuestos</t>
+  </si>
+  <si>
+    <t>1.1.02.06.003.02</t>
+  </si>
+  <si>
+    <t>Participación en contribuciones</t>
+  </si>
+  <si>
+    <t>1.1.02.06.003.03</t>
+  </si>
+  <si>
+    <t>Participación en multas, sanciones e intereses de mora</t>
+  </si>
+  <si>
+    <t>1.1.02.06.003.04</t>
+  </si>
+  <si>
+    <t>Participación en derechos económicos por el uso de recursos naturales</t>
+  </si>
+  <si>
+    <t>1.1.02.06.004</t>
+  </si>
+  <si>
+    <t>Compensaciones de ingresos tributarios y no tributarios</t>
+  </si>
+  <si>
+    <t>1.1.02.06.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A entidades territoriales distintas de participaciones y compensaciones </t>
+  </si>
+  <si>
+    <t>1.1.02.06.006</t>
+  </si>
+  <si>
+    <t>Transferencias de otras entidades del gobierno general</t>
+  </si>
+  <si>
+    <t>1.1.02.06.009</t>
+  </si>
+  <si>
+    <t>Recursos del Sistema de Seguridad Social Integral</t>
+  </si>
+  <si>
+    <t>1.1.02.06.009.01</t>
+  </si>
+  <si>
+    <t>Sistema General de Seguridad Social en Salud</t>
+  </si>
+  <si>
+    <t>1.1.02.06.009.02</t>
+  </si>
+  <si>
+    <t>Sistema General de Pensiones</t>
+  </si>
+  <si>
+    <t>1.1.02.06.010</t>
+  </si>
+  <si>
+    <t>Sentencias y conciliaciones</t>
+  </si>
+  <si>
+    <t>1.1.02.06.011</t>
+  </si>
+  <si>
+    <t>Indemnizaciones relacionadas con seguros no de vida</t>
+  </si>
+  <si>
+    <t>1.1.02.06.020</t>
+  </si>
+  <si>
+    <t>Devoluciones seguridad social - pensiones</t>
+  </si>
+  <si>
+    <t>1.1.02.07</t>
+  </si>
+  <si>
+    <t>Participación y derechos por monopolio</t>
+  </si>
+  <si>
+    <t>1.1.02.07.001</t>
+  </si>
+  <si>
+    <t>Derechos por la explotación juegos de suerte y azar</t>
+  </si>
+  <si>
+    <t>1.1.02.07.002</t>
+  </si>
+  <si>
+    <t>Participación y derechos de explotación del ejercicio del monopolio de licores destilados y alcoholes potables</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Recursos de capital</t>
+  </si>
+  <si>
+    <t>1.2.01</t>
+  </si>
+  <si>
+    <t>Disposición de activos</t>
+  </si>
+  <si>
+    <t>Bonos y otros títulos emitidos</t>
+  </si>
+  <si>
+    <t>1.2.02</t>
+  </si>
+  <si>
+    <t>Excedentes financieros</t>
+  </si>
+  <si>
+    <t>1.2.03</t>
+  </si>
+  <si>
+    <t>Dividendos y utilidades por otras inversiones de capital</t>
+  </si>
+  <si>
+    <t>1.2.05</t>
+  </si>
+  <si>
+    <t>Rendimientos financieros</t>
+  </si>
+  <si>
+    <t>1.2.06</t>
+  </si>
+  <si>
+    <t>Recursos de crédito externo</t>
+  </si>
+  <si>
+    <t>1.2.06.01</t>
+  </si>
+  <si>
+    <t>Recursos de contratos de empréstitos externos</t>
+  </si>
+  <si>
+    <t>1.2.06.01.001</t>
+  </si>
+  <si>
+    <t>Bancos comerciales</t>
+  </si>
+  <si>
+    <t>1.2.06.01.002</t>
+  </si>
+  <si>
+    <t>Entidades de fomento</t>
+  </si>
+  <si>
+    <t>1.2.06.01.003</t>
+  </si>
+  <si>
+    <t>Gobiernos</t>
+  </si>
+  <si>
+    <t>1.2.06.01.004</t>
+  </si>
+  <si>
+    <t>Organismos multilaterales</t>
+  </si>
+  <si>
+    <t>1.2.06.01.005</t>
+  </si>
+  <si>
+    <t>Otras instituciones financieras</t>
+  </si>
+  <si>
+    <t>1.2.06.02</t>
+  </si>
+  <si>
+    <t>Títulos de deuda</t>
+  </si>
+  <si>
+    <t>1.2.07</t>
+  </si>
+  <si>
+    <t>Recursos de crédito interno</t>
+  </si>
+  <si>
+    <t>1.2.07.01</t>
+  </si>
+  <si>
+    <t>Recursos de contratos de empréstitos internos</t>
+  </si>
+  <si>
+    <t>1.2.07.01.001</t>
+  </si>
+  <si>
+    <t>Banca comercial</t>
+  </si>
+  <si>
+    <t>1.2.07.01.002</t>
+  </si>
+  <si>
+    <t>Nación</t>
+  </si>
+  <si>
+    <t>1.2.07.01.003</t>
+  </si>
+  <si>
+    <t>Banca de fomento</t>
+  </si>
+  <si>
+    <t>1.2.07.01.004</t>
+  </si>
+  <si>
+    <t>Institutos de Desarrollo Departamental y/o Municipal</t>
+  </si>
+  <si>
+    <t>1.2.07.01.006</t>
+  </si>
+  <si>
+    <t>1.2.07.01.007</t>
+  </si>
+  <si>
+    <t>Otras entidades no financieras</t>
+  </si>
+  <si>
+    <t>1.2.07.02</t>
+  </si>
+  <si>
+    <t>1.2.07.02.002</t>
+  </si>
+  <si>
+    <t>1.2.08</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>1.2.08.01</t>
+  </si>
+  <si>
+    <t>Donaciones</t>
+  </si>
+  <si>
+    <t>1.2.08.02</t>
+  </si>
+  <si>
+    <t>1.2.08.03</t>
+  </si>
+  <si>
+    <t>Compensaciones de capital</t>
+  </si>
+  <si>
+    <t>1.2.08.04</t>
+  </si>
+  <si>
+    <t>Premios no reclamados</t>
+  </si>
+  <si>
+    <t>1.2.08.05</t>
+  </si>
+  <si>
+    <t>Reembolso fondo de contingencias</t>
+  </si>
+  <si>
+    <t>1.2.08.06</t>
+  </si>
+  <si>
+    <t>De otras entidades del gobierno general</t>
+  </si>
+  <si>
+    <t>1.2.09</t>
+  </si>
+  <si>
+    <t>Recuperación de cartera - préstamos</t>
+  </si>
+  <si>
+    <t>1.2.10</t>
+  </si>
+  <si>
+    <t>Recursos del balance</t>
+  </si>
+  <si>
+    <t>1.2.11</t>
+  </si>
+  <si>
+    <t>Diferencial cambiario</t>
+  </si>
+  <si>
+    <t>1.2.12</t>
+  </si>
+  <si>
+    <t>Retiros FONPET</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+  </si>
+  <si>
+    <t>Reintegros y otros recursos no apropiados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3686,16 +4758,115 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3703,11 +4874,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3716,14 +4999,421 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DD923D47-A410-4ECF-8EBA-8C3AF15A04E5}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3843,7 +5533,7 @@
   <autoFilter ref="A1:B20" xr:uid="{DFE9B909-91AD-4235-955E-BCB924CA3586}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD616CD6-8863-4FE6-819D-B5EE6582208A}" name="periodo"/>
-    <tableColumn id="4" xr3:uid="{A202FA5C-B119-468F-A40F-E88EF6982303}" name="Personalizado.1" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{A202FA5C-B119-468F-A40F-E88EF6982303}" name="Personalizado.1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3857,29 +5547,42 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CFDE9C0E-5BB7-462A-BC8D-197528850D37}" name="codigo_entidad"/>
-    <tableColumn id="2" xr3:uid="{1172B3C9-2540-40D5-B712-39D028047E1A}" name="nombre_entidad" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{AB0FAA49-D94E-4BD9-9923-CE77DFC28070}" name="cod_dane" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C9FABF36-1856-4076-93FC-32A250D7801F}" name="departamento" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{0CF3D93D-30C3-4BE2-AAA1-2364DE01FD6E}" name="año" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{114E576E-0889-468C-B992-5BFEB97C4CF4}" name="poblacion" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{50152DD3-3BBE-43F3-BFC0-6B13324D4E39}" name="categoria" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{8588B7BC-A706-4238-8FCE-10781987D165}" name="region" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1172B3C9-2540-40D5-B712-39D028047E1A}" name="nombre_entidad" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{AB0FAA49-D94E-4BD9-9923-CE77DFC28070}" name="cod_dane" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{C9FABF36-1856-4076-93FC-32A250D7801F}" name="departamento" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{0CF3D93D-30C3-4BE2-AAA1-2364DE01FD6E}" name="año" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{114E576E-0889-468C-B992-5BFEB97C4CF4}" name="poblacion" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{50152DD3-3BBE-43F3-BFC0-6B13324D4E39}" name="categoria" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{8588B7BC-A706-4238-8FCE-10781987D165}" name="region" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E49B9C49-61A7-4A24-B84A-C26607D77EB5}" name="Tabla3" displayName="Tabla3" ref="A1:G33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E49B9C49-61A7-4A24-B84A-C26607D77EB5}" name="Tabla3" displayName="Tabla3" ref="A1:G33" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:G33" xr:uid="{E49B9C49-61A7-4A24-B84A-C26607D77EB5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4C37AF77-1321-496F-8ED3-B504BE5461A2}" name="codigo_entidad" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AF868F7E-AE05-45EE-8D12-FAE855DF62C9}" name="nombre_entidad" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5CF05EA3-3979-45F4-A627-9D70A0B7FE8C}" name="nombre_corto" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7C9A4BD8-87B6-4927-BCF9-B13077C00393}" name="poblacion" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{830FED40-A55C-4836-9146-A009D11C205B}" name="cod_dane" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{210351E9-C912-4B74-93F7-B4FB3F35F2E8}" name="region" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F342E2F3-ECFE-4E7B-A4EF-1DDF27E397B7}" name="categoria" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4C37AF77-1321-496F-8ED3-B504BE5461A2}" name="codigo_entidad" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{AF868F7E-AE05-45EE-8D12-FAE855DF62C9}" name="nombre_entidad" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5CF05EA3-3979-45F4-A627-9D70A0B7FE8C}" name="nombre_corto" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{7C9A4BD8-87B6-4927-BCF9-B13077C00393}" name="poblacion" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{830FED40-A55C-4836-9146-A009D11C205B}" name="cod_dane" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{210351E9-C912-4B74-93F7-B4FB3F35F2E8}" name="region" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{F342E2F3-ECFE-4E7B-A4EF-1DDF27E397B7}" name="categoria" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20A21F12-689F-4786-8B9C-92D0BCA5B7E5}" name="listacuentasingresos" displayName="listacuentasingresos" ref="A1:D178" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:D178" xr:uid="{20A21F12-689F-4786-8B9C-92D0BCA5B7E5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{60796433-C609-4B09-B1EF-F0A2A1A7E1D7}" name="Código Completo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CEF8750C-68E0-471C-8C9F-409C0875C446}" name="Nivel" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{08FA7E01-377F-40F7-9429-E5EBFB47DBEC}" name="Tipo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A75BC534-0AE5-49B4-91E3-9158367ED92B}" name="Nombre de la Cuenta" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -33091,7 +34794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C16561-EF94-4928-B4C1-22E1EF05471A}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -33145,7 +34848,7 @@
       <c r="F2" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -33168,7 +34871,7 @@
       <c r="F3" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33191,7 +34894,7 @@
       <c r="F4" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33214,7 +34917,7 @@
       <c r="F5" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33237,7 +34940,7 @@
       <c r="F6" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -33260,7 +34963,7 @@
       <c r="F7" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33283,7 +34986,7 @@
       <c r="F8" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -33306,7 +35009,7 @@
       <c r="F9" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -33329,7 +35032,7 @@
       <c r="F10" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33352,7 +35055,7 @@
       <c r="F11" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -33375,7 +35078,7 @@
       <c r="F12" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33398,7 +35101,7 @@
       <c r="F13" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -33421,7 +35124,7 @@
       <c r="F14" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33444,7 +35147,7 @@
       <c r="F15" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -33467,7 +35170,7 @@
       <c r="F16" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33490,7 +35193,7 @@
       <c r="F17" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33513,7 +35216,7 @@
       <c r="F18" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33536,7 +35239,7 @@
       <c r="F19" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -33559,7 +35262,7 @@
       <c r="F20" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -33582,7 +35285,7 @@
       <c r="F21" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -33605,7 +35308,7 @@
       <c r="F22" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -33628,7 +35331,7 @@
       <c r="F23" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -33651,7 +35354,7 @@
       <c r="F24" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -33674,7 +35377,7 @@
       <c r="F25" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33697,7 +35400,7 @@
       <c r="F26" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -33720,7 +35423,7 @@
       <c r="F27" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33743,7 +35446,7 @@
       <c r="F28" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -33766,7 +35469,7 @@
       <c r="F29" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33789,7 +35492,7 @@
       <c r="F30" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33812,7 +35515,7 @@
       <c r="F31" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33835,7 +35538,7 @@
       <c r="F32" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33858,7 +35561,7 @@
       <c r="F33" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -33869,4 +35572,2518 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B26894-EE49-4897-B62D-7D83316C97DC}">
+  <dimension ref="A1:D178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="82.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B16" s="13">
+        <v>6</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B17" s="14">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B18" s="14">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B19" s="13">
+        <v>6</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B20" s="13">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B21" s="13">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B22" s="13">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B33" s="10">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B34" s="10">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B35" s="10">
+        <v>5</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B36" s="10">
+        <v>5</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B37" s="10">
+        <v>5</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B38" s="10">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B39" s="10">
+        <v>5</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B40" s="10">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B41" s="10">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B42" s="10">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B43" s="10">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B44" s="12">
+        <v>5</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B45" s="10">
+        <v>5</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B46" s="12">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B47" s="11">
+        <v>6</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B48" s="11">
+        <v>6</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B49" s="11">
+        <v>6</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B50" s="11">
+        <v>6</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B51" s="11">
+        <v>6</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B52" s="11">
+        <v>6</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B53" s="11">
+        <v>6</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B54" s="11">
+        <v>6</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B55" s="11">
+        <v>6</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B56" s="11">
+        <v>6</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B57" s="11">
+        <v>6</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B58" s="11">
+        <v>6</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B59" s="11">
+        <v>6</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B60" s="11">
+        <v>6</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B61" s="11">
+        <v>6</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B62" s="11">
+        <v>6</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B63" s="11">
+        <v>6</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B64" s="11">
+        <v>6</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B65" s="11">
+        <v>6</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="30" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B66" s="11">
+        <v>6</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B67" s="11">
+        <v>6</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B68" s="11">
+        <v>6</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B69" s="11">
+        <v>6</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B70" s="11">
+        <v>6</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B71" s="11">
+        <v>6</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="30" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B72" s="11">
+        <v>6</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="30" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B73" s="11">
+        <v>6</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="30" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B74" s="11">
+        <v>6</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="30" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B75" s="11">
+        <v>6</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B76" s="11">
+        <v>6</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B77" s="11">
+        <v>6</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B78" s="11">
+        <v>6</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="30" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B79" s="11">
+        <v>6</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B80" s="11">
+        <v>6</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B81" s="11">
+        <v>6</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B82" s="11">
+        <v>6</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="30" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B83" s="11">
+        <v>6</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D83" s="50" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="30" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B84" s="11">
+        <v>6</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B85" s="11">
+        <v>6</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D85" s="50" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="30" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B86" s="11">
+        <v>6</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D86" s="50" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B87" s="11">
+        <v>6</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D87" s="50" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B88" s="11">
+        <v>6</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="30" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B89" s="11">
+        <v>6</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="30" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B90" s="11">
+        <v>6</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="30" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B91" s="11">
+        <v>6</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="30" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B92" s="11">
+        <v>6</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="30" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B93" s="11">
+        <v>6</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="30" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B94" s="11">
+        <v>6</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="30" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B95" s="11">
+        <v>6</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="30" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B96" s="11">
+        <v>6</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B97" s="11">
+        <v>6</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D97" s="50" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="30" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B98" s="11">
+        <v>6</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="30" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B99" s="11">
+        <v>6</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="30" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B100" s="11">
+        <v>6</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="30" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B101" s="11">
+        <v>6</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D101" s="50" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="30" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B102" s="11">
+        <v>6</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="30" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B103" s="11">
+        <v>6</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="30" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B104" s="11">
+        <v>6</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B105" s="11">
+        <v>6</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D105" s="51" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B106" s="11">
+        <v>6</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D106" s="51" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B107" s="11">
+        <v>6</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D107" s="51" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="31" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B108" s="11">
+        <v>6</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D108" s="51" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B109" s="11">
+        <v>6</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B110" s="15">
+        <v>3</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D110" s="52" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="33" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B111" s="16">
+        <v>4</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D111" s="53" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="25" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B112" s="12">
+        <v>5</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D112" s="43" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="25" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B113" s="12">
+        <v>5</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="22" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B114" s="7">
+        <v>4</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="33" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B115" s="16">
+        <v>4</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="33" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B116" s="16">
+        <v>4</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="25" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B117" s="12">
+        <v>5</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="25" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B118" s="12">
+        <v>5</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="22" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B119" s="7">
+        <v>4</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D119" s="54" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="23" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B120" s="8">
+        <v>5</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="26" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B121" s="13">
+        <v>6</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D121" s="44" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="26" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B122" s="13">
+        <v>6</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D122" s="44" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="26" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B123" s="13">
+        <v>6</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D123" s="44" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="26" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B124" s="13">
+        <v>6</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="30" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B125" s="11">
+        <v>6</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="34" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B126" s="9">
+        <v>6</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D126" s="55" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="23" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B127" s="8">
+        <v>5</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="26" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B128" s="13">
+        <v>6</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="26" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B129" s="13">
+        <v>6</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D129" s="44" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="26" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B130" s="13">
+        <v>6</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D130" s="44" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="26" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B131" s="13">
+        <v>6</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D131" s="44" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="23" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B132" s="8">
+        <v>5</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="23" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B133" s="8">
+        <v>5</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="23" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B134" s="8">
+        <v>5</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="23" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B135" s="8">
+        <v>5</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="26" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B136" s="13">
+        <v>6</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D136" s="44" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="26" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B137" s="13">
+        <v>6</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D137" s="44" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="23" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B138" s="8">
+        <v>5</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="24" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B139" s="10">
+        <v>5</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D139" s="42" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="24" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B140" s="10">
+        <v>5</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D140" s="42" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="22" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B141" s="7">
+        <v>4</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D141" s="54" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="23" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B142" s="8">
+        <v>5</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="23" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B143" s="8">
+        <v>5</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="20" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="21" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B145" s="6">
+        <v>3</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D145" s="56" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="21" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B146" s="6">
+        <v>3</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D146" s="56" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B147" s="6">
+        <v>3</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D147" s="56" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B148" s="6">
+        <v>3</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D148" s="56" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="21" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B149" s="6">
+        <v>3</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D149" s="56" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="22" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B150" s="7">
+        <v>4</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D150" s="54" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="24" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B151" s="10">
+        <v>5</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D151" s="42" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="24" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B152" s="10">
+        <v>5</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D152" s="42" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="23" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B153" s="8">
+        <v>5</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="23" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B154" s="8">
+        <v>5</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D154" s="41" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="23" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B155" s="8">
+        <v>5</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="22" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B156" s="7">
+        <v>4</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B157" s="6">
+        <v>3</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D157" s="56" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="22" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B158" s="7">
+        <v>4</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D158" s="54" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="24" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B159" s="10">
+        <v>5</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D159" s="42" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B160" s="10">
+        <v>5</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D160" s="42" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="24" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B161" s="10">
+        <v>5</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D161" s="42" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="24" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B162" s="10">
+        <v>5</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D162" s="42" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="24" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B163" s="10">
+        <v>5</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D163" s="42" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="24" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B164" s="10">
+        <v>5</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D164" s="42" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="22" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B165" s="7">
+        <v>4</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D165" s="54" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="24" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B166" s="10">
+        <v>5</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D166" s="42" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B167" s="6">
+        <v>3</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D167" s="56" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="22" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B168" s="7">
+        <v>4</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="35" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B169" s="17">
+        <v>4</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D169" s="57" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B170" s="7">
+        <v>4</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D170" s="54" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="22" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B171" s="7">
+        <v>4</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D171" s="54" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="35" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B172" s="17">
+        <v>4</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D172" s="57" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="22" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B173" s="7">
+        <v>4</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D173" s="54" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B174" s="6">
+        <v>3</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D174" s="56" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="21" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B175" s="6">
+        <v>3</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D175" s="56" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="36" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B176" s="18">
+        <v>3</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D176" s="58" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="21" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B177" s="6">
+        <v>3</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D177" s="56" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="62" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B178" s="63">
+        <v>3</v>
+      </c>
+      <c r="C178" s="63" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D178" s="64" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>